--- a/src/predicciones/holt_winters/producto_190.xlsx
+++ b/src/predicciones/holt_winters/producto_190.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1135 +404,640 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44933</v>
       </c>
       <c r="B2">
-        <v>1.24351780201435</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44950</v>
       </c>
       <c r="B3">
-        <v>1.179839914447325</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44959</v>
       </c>
       <c r="B4">
-        <v>1.110931003901751</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44963</v>
       </c>
       <c r="B5">
-        <v>1.071281900153259</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44973</v>
       </c>
       <c r="B6">
-        <v>1.052260862336277</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44990</v>
       </c>
       <c r="B7">
-        <v>2.000693916563364</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>45004</v>
       </c>
       <c r="B8">
-        <v>1.052469844123344</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>45008</v>
       </c>
       <c r="B9">
-        <v>1.251083976393495</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>45013</v>
       </c>
       <c r="B10">
-        <v>1.187406088826469</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>45017</v>
       </c>
       <c r="B11">
-        <v>1.118497178280895</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>45018</v>
       </c>
       <c r="B12">
-        <v>1.078848074532403</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>45026</v>
       </c>
       <c r="B13">
-        <v>1.059827036715421</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>45027</v>
       </c>
       <c r="B14">
-        <v>2.008260090942509</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>45031</v>
       </c>
       <c r="B15">
-        <v>1.060036018502488</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>45033</v>
       </c>
       <c r="B16">
-        <v>1.258650150772639</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>45044</v>
       </c>
       <c r="B17">
-        <v>1.194972263205613</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45049</v>
       </c>
       <c r="B18">
-        <v>1.12606335266004</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45055</v>
       </c>
       <c r="B19">
-        <v>1.086414248911547</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45059</v>
       </c>
       <c r="B20">
-        <v>1.067393211094566</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45062</v>
       </c>
       <c r="B21">
-        <v>2.015826265321653</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45068</v>
       </c>
       <c r="B22">
-        <v>1.067602192881633</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45070</v>
       </c>
       <c r="B23">
-        <v>1.266216325151783</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45085</v>
       </c>
       <c r="B24">
-        <v>1.202538437584757</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45091</v>
       </c>
       <c r="B25">
-        <v>1.133629527039184</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45092</v>
       </c>
       <c r="B26">
-        <v>1.093980423290691</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45110</v>
       </c>
       <c r="B27">
-        <v>1.07495938547371</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45114</v>
       </c>
       <c r="B28">
-        <v>2.023392439700797</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45120</v>
       </c>
       <c r="B29">
-        <v>1.075168367260777</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45121</v>
       </c>
       <c r="B30">
-        <v>1.273782499530927</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45125</v>
       </c>
       <c r="B31">
-        <v>1.210104611963902</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45127</v>
       </c>
       <c r="B32">
-        <v>1.141195701418328</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45132</v>
       </c>
       <c r="B33">
-        <v>1.101546597669836</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45140</v>
       </c>
       <c r="B34">
-        <v>1.082525559852854</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45149</v>
       </c>
       <c r="B35">
-        <v>2.030958614079941</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45156</v>
       </c>
       <c r="B36">
-        <v>1.082734541639921</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45183</v>
       </c>
       <c r="B37">
-        <v>1.281348673910072</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45189</v>
       </c>
       <c r="B38">
-        <v>1.217670786343046</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45191</v>
       </c>
       <c r="B39">
-        <v>1.148761875797472</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45195</v>
       </c>
       <c r="B40">
-        <v>1.10911277204898</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45200</v>
       </c>
       <c r="B41">
-        <v>1.090091734231998</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45201</v>
       </c>
       <c r="B42">
-        <v>2.038524788459086</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45205</v>
       </c>
       <c r="B43">
-        <v>1.090300716019065</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45211</v>
       </c>
       <c r="B44">
-        <v>1.288914848289216</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45217</v>
       </c>
       <c r="B45">
-        <v>1.22523696072219</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45229</v>
       </c>
       <c r="B46">
-        <v>1.156328050176617</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45255</v>
       </c>
       <c r="B47">
-        <v>1.116678946428124</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45274</v>
       </c>
       <c r="B48">
-        <v>1.097657908611143</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45283</v>
       </c>
       <c r="B49">
-        <v>2.04609096283823</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45284</v>
       </c>
       <c r="B50">
-        <v>1.09786689039821</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45288</v>
       </c>
       <c r="B51">
-        <v>1.29648102266836</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45294</v>
       </c>
       <c r="B52">
-        <v>1.232803135101334</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45295</v>
       </c>
       <c r="B53">
-        <v>1.163894224555761</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45297</v>
       </c>
       <c r="B54">
-        <v>1.124245120807268</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45299</v>
       </c>
       <c r="B55">
-        <v>1.105224082990287</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45308</v>
       </c>
       <c r="B56">
-        <v>2.053657137217374</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45313</v>
       </c>
       <c r="B57">
-        <v>1.105433064777354</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45339</v>
       </c>
       <c r="B58">
-        <v>1.304047197047504</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45340</v>
       </c>
       <c r="B59">
-        <v>1.240369309480479</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>1.171460398934905</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>1.131811295186413</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>1.112790257369431</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>2.061223311596518</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>1.112999239156498</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>1.311613371426649</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>1.247935483859623</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>1.179026573314049</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>1.139377469565557</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>1.120356431748576</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>2.068789485975663</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>1.120565413535642</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>1.319179545805793</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>1.255501658238767</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>1.186592747693194</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>1.146943643944701</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>1.12792260612772</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>2.076355660354807</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>1.128131587914787</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>1.326745720184937</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>1.263067832617911</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>1.194158922072338</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>1.154509818323845</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>1.135488780506864</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>2.083921834733951</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>1.135697762293931</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>1.334311894564082</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>1.270634006997056</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>1.201725096451482</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>1.16207599270299</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>1.143054954886008</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>2.091488009113095</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>1.143263936673075</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>1.341878068943226</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>1.2782001813762</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>1.209291270830626</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>1.169642167082134</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>1.150621129265153</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>2.09905418349224</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>1.150830111052219</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>1.34944424332237</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>1.285766355755344</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>1.216857445209771</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>1.177208341461278</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>1.158187303644297</v>
-      </c>
-      <c r="C104">
         <v>1</v>
       </c>
     </row>
